--- a/Data/Transitions/19201928Translation.xlsx
+++ b/Data/Transitions/19201928Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7129629629629629}</t>
+    <t>{486.0: 0.23351728144060413}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.7069508804448563}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -106,7 +106,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.014071768518479359, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 246.0: 0.014061900444306514, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -145,7 +145,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -172,10 +172,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 1.0, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7850698306760598}</t>
+    <t>{80.0: 1.0, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7830859423724585}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.477532649597875}</t>
+    <t>{86.0: 0.4752871433864394}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0004825682791784487}</t>
+    <t>{91.0: 1.0, 92.0: 0.0004535688708522321}</t>
   </si>
   <si>
     <t>{92.0: 0.9335071707953064}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.9199943954042314}</t>
+    <t>{98.0: 0.9189265937810592}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,16 +244,16 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.012229296127601213}</t>
+    <t>{92.0: 0.01225829553592743}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0069992364469330616}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008435213853451006}</t>
+    <t>{107.0: 1.0, 543.0: 0.0067138671875}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008435255909037489}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -331,13 +331,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9428147659854977}</t>
+    <t>{172.0: 0.9421280853902602}</t>
   </si>
   <si>
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.20598512462143895}</t>
+    <t>{174.0: 1.0, 502.0: 0.20775329690244515}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,22 +349,22 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6477801374923218}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16187171408892798}</t>
+    <t>{182.0: 0.6467200725568916}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16235887418898493}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.7114100886721801}</t>
+    <t>{204.0: 0.7113991598744435}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,13 +412,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.2483001726694991}</t>
+    <t>{897.0: 0.24775733895741378}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.11470472698703679}</t>
+    <t>{218.0: 1.0, 409.0: 0.11496062992125984}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
+    <t>{227.0: 0.6191135734072022}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6436855156999559}</t>
+    <t>{246.0: 0.6439478202716789}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,13 +499,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
+    <t>{249.0: 0.9929308797127468}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,13 +544,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8354978354978355, 843.0: 0.05275609848056404}</t>
+    <t>{264.0: 0.832411620581029, 843.0: 0.05373114264778395}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.0986682808716707, 887.0: 0.1831615433731643}</t>
+    <t>{61.0: 0.09998773156667894, 887.0: 0.18437241759250758}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -568,7 +571,7 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
+    <t>{686.0: 0.39461948541510167}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19034814841875028}</t>
+    <t>{182.0: 0.19092105325412345}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.2650575399790764}</t>
+    <t>{909.0: 0.2691811489716931}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -610,13 +613,13 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -637,7 +640,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.674955970412117}</t>
+    <t>{298.0: 0.6710160427807487}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -652,13 +655,13 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0}</t>
@@ -670,7 +673,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.01907822518424724}</t>
+    <t>{309.0: 1.0, 204.0: 0.019089153981983964}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -700,13 +703,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.08000560459576853}</t>
+    <t>{398.0: 1.0, 98.0: 0.0810734062189408}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -724,7 +724,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9902515215166694}</t>
+    <t>{404.0: 0.9902331102957047}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8852952730129632}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{409.0: 0.8850393700787401}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,7 +763,7 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8830488750969744}</t>
+    <t>{418.0: 0.8827532568539763}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -799,10 +799,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -811,7 +811,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -823,19 +823,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 1.0, 291.0: 0.06846646256610076}</t>
+    <t>{443.0: 1.0, 291.0: 0.06869589500139626}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145}</t>
+    <t>{476.0: 0.8402999583391195}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -865,7 +865,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.7696934975651676}</t>
+    <t>{486.0: 0.7664827185593959}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,25 +880,25 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.011442530213422474}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9885574697865775}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.414761168472352e-05}</t>
+    <t>{491.0: 1.0, 492.0: 0.011577235772357723}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9884227642276423}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.410771665985799e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7682466786944399}</t>
+    <t>{497.0: 0.7672285981000494}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -907,13 +907,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.8108108108108109}</t>
+    <t>{500.0: 0.8075521695925804}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.794014875378561}</t>
+    <t>{502.0: 0.7922467030975547}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{933.0: 0.18729847189120988}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -946,13 +946,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8551437537104571}</t>
+    <t>{534.0: 0.8960549645390071}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8534475447375116}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.993000763553067}</t>
+    <t>{543.0: 0.9932861328125}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6294255744382644}</t>
-  </si>
-  <si>
-    <t>{581.0: 1.0, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.628479805291993}</t>
+  </si>
+  <si>
+    <t>{581.0: 1.0, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1039,7 +1039,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1078,7 +1078,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1093,7 +1093,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1117,16 +1117,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9931166347992352}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9934485896269336}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1135,7 +1135,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1201,13 +1201,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1216,7 +1216,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5239710306890218}</t>
+    <t>{686.0: 0.5242522882871485}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1240,10 +1240,10 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.522467350402125, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1358224727016555, 857.0: 0.0961021239620225}</t>
+    <t>{86.0: 0.5247128566135606, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.13746880570409983, 857.0: 0.09616585708363125}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9952771708259297}</t>
+    <t>{698.0: 0.9952416130817437}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1276,16 +1276,16 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.2372133164273032}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.23781693947321766}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
+    <t>{733.0: 0.923876963930073}</t>
   </si>
   <si>
     <t>{734.0: 1.0}</t>
@@ -1318,7 +1318,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9931837546151662, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{741.0: 0.9931837546151662, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{742.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18922155688622755, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.19151515151515153, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.13336110913443233}</t>
+    <t>{580.0: 0.1337032552347893}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475}</t>
+    <t>{757.0: 0.2513707719978347}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.935766112186006e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.914160496020589e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7409374650734597}</t>
+    <t>{782.0: 0.7360736129578894}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,19 +1450,19 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{500.0: 0.1891891891891892}</t>
+    <t>{500.0: 0.19244783040741967}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9955746908559042, 246.0: 0.05497736487796505}</t>
+    <t>{789.0: 0.9955654133162938, 246.0: 0.05493704087155117}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{837.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9472439015194359, 264.0: 0.1645021645021645}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.016503024588630608}</t>
+    <t>{843.0: 0.9462688573522161, 264.0: 0.16758837941897095}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.016444551075506544}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9038978760379776}</t>
+    <t>{857.0: 0.9038341429163687}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8168384566268357}</t>
+    <t>{887.0: 0.8156275824074924}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -1591,10 +1591,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.726269672766488}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7268702215640015}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1603,10 +1603,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.10324494606396221, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.7349424600209237}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.10356293822099828, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.7308188510283069}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1639,10 +1639,10 @@
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9179694492414264}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9192088257463509}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.28703703703703703, 418.0: 0.1169511249030256, 922.0: 0.06387231470150483}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.3412704774541422}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5554845764818955}</t>
+    <t>{3.0: 0.2930491195551437, 418.0: 0.11724674314602372, 922.0: 0.06263293819658025}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.3512702642131905}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5451667975658112}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1678,7 +1678,7 @@
     <t>{933.0: 0.8127015281087901, 702.0: 0.0011495269254576002}</t>
   </si>
   <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{938.0: 0.7590095611669527}</t>
+    <t>{938.0: 0.750950088674943}</t>
   </si>
   <si>
     <t>{939.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1741,13 +1741,13 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23175332130556012, 938.0: 0.24099043883304733}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.23277140189995058, 938.0: 0.249049911325057}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1777,7 +1777,7 @@
     <t>{14.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9164572864321608, 246.0: 0.05450710842222503, 681.0: 0.0103643216080402, 741.0: 0.007377243459285064, 789.0: 0.011294040078288893}</t>
+    <t>{46.0: 0.9164572864321608, 246.0: 0.05450633945268684, 681.0: 0.0103643216080402, 741.0: 0.007377243459285065, 789.0: 0.01129480904782709}</t>
   </si>
   <si>
     <t>{61.0: 1.0}</t>
@@ -1804,10 +1804,10 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.993484956171523, 543.0: 0.006515043828476664}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{107.0: 0.9934849561715234, 543.0: 0.006515043828476664}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511282, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1831,13 +1831,13 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 502.0: 0.47303499899021634}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{174.0: 0.529134601041196, 502.0: 0.470865398958804}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9924042536179738, 14.0: 0.007595746382026066}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.02531538396410126}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
@@ -1870,16 +1870,16 @@
     <t>{251.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.9789285950194864, 843.0: 0.0210714049805139}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233084}</t>
+    <t>{264.0: 0.9789285950194859, 843.0: 0.0210714049805139}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233087}</t>
   </si>
   <si>
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 0.959086427672184, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
+    <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1891,7 +1891,7 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951964}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951964}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1903,7 +1903,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.9568853898550179, 204.0: 0.043114610144982045}</t>
+    <t>{309.0: 0.9568853898550178, 204.0: 0.043114610144982045}</t>
   </si>
   <si>
     <t>{398.0: 0.8632007666506948, 98.0: 0.13679923334930522}</t>
@@ -1936,7 +1936,7 @@
     <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
   </si>
   <si>
     <t>{476.0: 1.0}</t>
@@ -1975,7 +1975,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825392, 71.0: 0.0065477320174606194}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
   </si>
   <si>
     <t>{604.0: 1.0}</t>
@@ -1987,7 +1987,7 @@
     <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
@@ -2005,7 +2005,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.931297709923664, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.9320388349514563, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{612.0: 0.9644128113879004, 613.0: 0.03558718861209965}</t>
@@ -2014,7 +2014,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2032,10 +2032,10 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057079, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7258720104389738, 857.0: 0.2741279895610262}</t>
+    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7259705854114223, 857.0: 0.2740294145885776}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2059,10 +2059,10 @@
     <t>{741.0: 0.9787142989318188, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.010014537231465032}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2408881441139506, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685348, 691.0: 0.010014537231465032}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395051, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -2077,7 +2077,7 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795798, 144.0: 2.46693153835297e-06}</t>
+    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795787, 144.0: 2.46693153835297e-06}</t>
   </si>
   <si>
     <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968037}</t>
@@ -2089,13 +2089,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9435422883765255, 246.0: 0.05645771162347448}</t>
+    <t>{789.0: 0.94360671992941, 246.0: 0.05639328007058985}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 0.9922515952597993, 423.0: 0.007748404740200548}</t>
+    <t>{838.0: 0.9922515952597998, 423.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{843.0: 0.7101712767157247, 264.0: 0.2898287232842753}</t>
@@ -2107,7 +2107,7 @@
     <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
   </si>
   <si>
-    <t>{851.0: 0.9234303215926493, 7.0: 0.07656967840735068}</t>
+    <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735068}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -2122,7 +2122,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022413, 930.0: 0.8573483060191542, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247713, 930.0: 0.857469242257538, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 686.0: 0.17051894309291252}</t>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4226,29 +4226,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>615</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>615</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4259,51 +4259,51 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>616</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>617</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>617</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4424,51 +4424,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>618</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>618</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>619</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>619</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4523,29 +4523,29 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>620</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>620</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4556,29 +4556,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>621</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>621</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4600,29 +4600,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>608</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4644,29 +4644,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>622</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4677,84 +4677,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>623</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>623</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>624</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>594</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4776,29 +4776,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>626</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>626</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4831,51 +4831,51 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>627</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>628</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4897,29 +4897,29 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>629</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
